--- a/output/fit_clients/fit_round_224.xlsx
+++ b/output/fit_clients/fit_round_224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2292155707.413574</v>
+        <v>1810808712.641034</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07389406826775184</v>
+        <v>0.09300135458012446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03613036000441405</v>
+        <v>0.03993204305456982</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1146077888.599897</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1874785394.465547</v>
+        <v>2043052304.040621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587620692428051</v>
+        <v>0.1519556391138093</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03822452678537489</v>
+        <v>0.04117123704939666</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>937392717.8836179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3909879161.869674</v>
+        <v>5224564400.975677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.157527315279381</v>
+        <v>0.1349757623953494</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03687186927530704</v>
+        <v>0.02487987307088822</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1954939588.718324</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3925680611.632351</v>
+        <v>3922017987.990502</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08738782097921662</v>
+        <v>0.07568318074386368</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04498270588896808</v>
+        <v>0.04771234184005349</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1962840314.417615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2653757544.002776</v>
+        <v>2064710421.248269</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1382800238100168</v>
+        <v>0.1186580587662414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03811011837255402</v>
+        <v>0.0426150587292168</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1326878730.830962</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3053621056.127696</v>
+        <v>2720695288.084644</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0714462230837004</v>
+        <v>0.1004985525418332</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03761352560919764</v>
+        <v>0.03417140774963161</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>68</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1526810487.766803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3538686784.351482</v>
+        <v>3735946364.947399</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1951834593354353</v>
+        <v>0.2105750681639913</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02213057949094553</v>
+        <v>0.02597798844785803</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1769343504.74445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2195428690.171421</v>
+        <v>1725780702.018059</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1597717748117427</v>
+        <v>0.1915324018179353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02947309851007416</v>
+        <v>0.03198661512804089</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1097714344.564566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4860521693.729353</v>
+        <v>4943179639.427906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2070244141936886</v>
+        <v>0.2075750498252811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04292049963748663</v>
+        <v>0.0472283619337945</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>94</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2430260935.342519</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4000831235.096307</v>
+        <v>3935069049.329039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1704187201457562</v>
+        <v>0.1917209637970029</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04773101489852598</v>
+        <v>0.039115382961105</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>93</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2000415630.241712</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2185529526.6703</v>
+        <v>3227212629.751275</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1377464073657404</v>
+        <v>0.1576668426240353</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03919463364546415</v>
+        <v>0.04420059839624887</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>77</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1092764706.768764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5092720810.225051</v>
+        <v>3612603251.809755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08776878404198055</v>
+        <v>0.1010065784387408</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0278463160875897</v>
+        <v>0.02267819379661179</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2546360404.524497</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2630760801.644772</v>
+        <v>3773393872.873492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1670881791400191</v>
+        <v>0.1645116556012294</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03519338329099581</v>
+        <v>0.04239751542824537</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1315380461.986446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1816683064.925206</v>
+        <v>1153485387.2728</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06855273229907571</v>
+        <v>0.07616822989991837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0381513363923932</v>
+        <v>0.03633526548719231</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>908341689.7518779</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2216567305.266188</v>
+        <v>2400032599.392728</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1016641133202075</v>
+        <v>0.1100114581498767</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04204125529322816</v>
+        <v>0.04467218735655198</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1108283708.759719</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4799127693.418377</v>
+        <v>5139241111.71688</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1643627727657201</v>
+        <v>0.1132599085628569</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04293564727271681</v>
+        <v>0.0444210849471152</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2399563841.804676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3851402331.360374</v>
+        <v>3102953442.646008</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1200274467851905</v>
+        <v>0.1562092740510882</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02295657754774691</v>
+        <v>0.0281511583860963</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>73</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1925701134.259665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>841014496.3251855</v>
+        <v>961145226.63571</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1622510885621617</v>
+        <v>0.149130246064072</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02375147100060061</v>
+        <v>0.02218504469521155</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>420507238.6944013</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2729572231.008648</v>
+        <v>2486626192.168425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1352015495621097</v>
+        <v>0.1479984282529492</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01974889357479317</v>
+        <v>0.03091713361540596</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1364786064.136622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1658959771.84422</v>
+        <v>2366901307.177097</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06815260990562007</v>
+        <v>0.07568861403211585</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04526558100538623</v>
+        <v>0.03181114587200329</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>829479954.4940934</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2822917303.158053</v>
+        <v>3827920849.599609</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1134002589834614</v>
+        <v>0.09566222733632233</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04987720021588764</v>
+        <v>0.04561167557765969</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1411458723.699218</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>957730882.1580101</v>
+        <v>1066497976.244264</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1243233062957651</v>
+        <v>0.156200476603378</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03514151227426247</v>
+        <v>0.03586866751282704</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>478865518.3708284</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3410445270.803057</v>
+        <v>3277493824.051168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1025844172297398</v>
+        <v>0.136358776147453</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03519483787318997</v>
+        <v>0.03149553233825454</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1705222643.030066</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1275141174.423982</v>
+        <v>963870276.9123194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1212374991173</v>
+        <v>0.1219650441575201</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02827586458482635</v>
+        <v>0.02712903383890716</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>637570587.8761474</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1331507477.224643</v>
+        <v>931627691.073621</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08871158234681896</v>
+        <v>0.1242883010816675</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02388123478872779</v>
+        <v>0.02586571939279832</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>665753791.8723034</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3236114926.402447</v>
+        <v>4428214952.138599</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1091638336353508</v>
+        <v>0.1041890743881865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01929134260133838</v>
+        <v>0.02175028439671205</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>55</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1618057511.282901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2751686898.756473</v>
+        <v>2844513512.057168</v>
       </c>
       <c r="F28" t="n">
-        <v>0.143606962517941</v>
+        <v>0.1175939196818627</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04874921103564733</v>
+        <v>0.03445608065129362</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>73</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1375843439.026907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3899908393.070068</v>
+        <v>4179163860.06689</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1417806821375395</v>
+        <v>0.1156714835694536</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04034763284698563</v>
+        <v>0.02850724928082973</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1949954220.287079</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1847791263.655368</v>
+        <v>2151296425.05846</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1223052554017268</v>
+        <v>0.1002010396277585</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02795421779338922</v>
+        <v>0.03446021406300257</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>923895651.9698622</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1123602270.532566</v>
+        <v>1204436954.382365</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08163320768286461</v>
+        <v>0.07012505984743334</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04270608672728661</v>
+        <v>0.04742345406504578</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>561801104.6892256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1763908567.077738</v>
+        <v>1574009260.39165</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1144095304829193</v>
+        <v>0.1017557083089818</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02441583821117393</v>
+        <v>0.03669197620224405</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>881954406.5109563</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2386455881.938036</v>
+        <v>2347400368.456572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.199883475209163</v>
+        <v>0.1390412369896795</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05215449247398748</v>
+        <v>0.04956296872080036</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1193227988.819765</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1413542137.46598</v>
+        <v>1507905178.282502</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09128073178059376</v>
+        <v>0.1110272652588739</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02309608158354942</v>
+        <v>0.01855290516325718</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>706771038.7241337</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1325317335.891104</v>
+        <v>1315615924.809841</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08535474503018031</v>
+        <v>0.09416789308065524</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04154886322893787</v>
+        <v>0.0327812951637675</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>662658615.1742315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2516169679.588951</v>
+        <v>2082483250.683735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1597284652546897</v>
+        <v>0.1343073949147971</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01759852449800511</v>
+        <v>0.02171296037571691</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>56</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1258084860.46052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2354088741.215101</v>
+        <v>2327384144.999702</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106153040214173</v>
+        <v>0.0977844296043197</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03558522894078338</v>
+        <v>0.02875293802617573</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>59</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1177044446.567638</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2041151684.754242</v>
+        <v>1604224091.141022</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1179960805191625</v>
+        <v>0.1075907035522243</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0354823502234067</v>
+        <v>0.03357318493950868</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1020575815.177388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1630771863.471636</v>
+        <v>1430599032.975116</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1546344260519467</v>
+        <v>0.1578867116549561</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02773796990426903</v>
+        <v>0.03014424445188799</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>815385982.3345742</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1119558802.932359</v>
+        <v>1372005896.550876</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1268632529350309</v>
+        <v>0.1599543353814413</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05245176447419711</v>
+        <v>0.04261823195520482</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>559779462.8794509</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1810532326.864467</v>
+        <v>2386855447.966597</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1121707464959796</v>
+        <v>0.1383212535679685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04218013791933483</v>
+        <v>0.03318877689697011</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>905266256.197341</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2685249105.70405</v>
+        <v>3317704140.652899</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012685755802465</v>
+        <v>0.08888444465729355</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03737403414656854</v>
+        <v>0.04639381333571296</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1342624491.633496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2179574769.708709</v>
+        <v>2683431473.007822</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1850804823462313</v>
+        <v>0.1901775604526859</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02191241911204079</v>
+        <v>0.01600826125733288</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>77</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1089787465.721234</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2033782754.864926</v>
+        <v>2160109038.04916</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07443027617394903</v>
+        <v>0.09422593275260821</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03228108622091327</v>
+        <v>0.02413635632754548</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1016891490.504391</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2067497701.364487</v>
+        <v>2209251382.671371</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1634998469371111</v>
+        <v>0.1671427475176836</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0395759511692934</v>
+        <v>0.0483281878412636</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1033748848.325155</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5156444327.314132</v>
+        <v>3584408130.668897</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1133896351214361</v>
+        <v>0.1633597320489376</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03909604566757601</v>
+        <v>0.05653031799224044</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>80</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2578222199.385187</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4713067507.955262</v>
+        <v>4090353429.113384</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1231419978689804</v>
+        <v>0.1895236101247364</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04452916572255308</v>
+        <v>0.03847974815670121</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>60</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2356533793.491282</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3359134094.739702</v>
+        <v>3867955319.305043</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06945518006964796</v>
+        <v>0.08838631205345111</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02415151660843067</v>
+        <v>0.03557972417200562</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1679567118.954307</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1802984506.042656</v>
+        <v>1740140525.377852</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1671688309494213</v>
+        <v>0.1851478625358909</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03585363727941179</v>
+        <v>0.03349773262372752</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>901492237.9160423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3256609445.694995</v>
+        <v>2794486862.487623</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1740567339642989</v>
+        <v>0.1240355241281233</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04420050657535364</v>
+        <v>0.03432082022362697</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>76</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1628304764.396994</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1432046087.723437</v>
+        <v>1462958840.845695</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1504873782193901</v>
+        <v>0.1428614565368046</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03479076109987987</v>
+        <v>0.04114191089405232</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>716023057.7814941</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3731295406.760619</v>
+        <v>5286935602.136277</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1088055070791349</v>
+        <v>0.134654194698062</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04217839359404417</v>
+        <v>0.05295836527385063</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>92</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1865647775.660531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3600771484.014499</v>
+        <v>2548961296.929691</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1826856366448908</v>
+        <v>0.1498939763039024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02416249242157592</v>
+        <v>0.0327556187131311</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>64</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1800385732.952332</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4287181425.403512</v>
+        <v>3961971419.612827</v>
       </c>
       <c r="F54" t="n">
-        <v>0.149670609944662</v>
+        <v>0.1641441649675012</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04874221052254565</v>
+        <v>0.03222920684075257</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2143590799.324611</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4464346736.062238</v>
+        <v>3138818162.392156</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1514860297803227</v>
+        <v>0.2186044620446577</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02944432585273252</v>
+        <v>0.02283455019328562</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2232173363.448006</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1513479824.611313</v>
+        <v>1430128591.380995</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1529493852884861</v>
+        <v>0.1492001287438521</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04956318625198156</v>
+        <v>0.05673395427217685</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>756739952.5506241</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3712692669.897668</v>
+        <v>3804338718.440742</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1293463412688307</v>
+        <v>0.1344006440332593</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02488164942289866</v>
+        <v>0.01852652867225357</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1856346399.182733</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1468907580.389451</v>
+        <v>1208381122.37599</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1617975787781441</v>
+        <v>0.151653107617094</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03887569757692118</v>
+        <v>0.03502052974421733</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>734453824.148743</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3832298462.684158</v>
+        <v>3376474623.502941</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09848750686257192</v>
+        <v>0.1264560243611557</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04362484108372564</v>
+        <v>0.03674035191815321</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>63</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1916149215.375424</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2618167886.407869</v>
+        <v>2470690500.199122</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1522892851515329</v>
+        <v>0.1835308677259657</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02660666980621986</v>
+        <v>0.03203584989135559</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1309083973.488501</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2921856972.152893</v>
+        <v>2288990434.78114</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1137045411996633</v>
+        <v>0.1588078524285049</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02835238309189218</v>
+        <v>0.03261246503002729</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>79</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1460928473.903169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1627849157.834771</v>
+        <v>1926011765.038069</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661321354956722</v>
+        <v>0.1839834210986576</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03606810285320096</v>
+        <v>0.03866859021458544</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>813924581.1387533</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4726401284.56436</v>
+        <v>5517234195.354893</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07985641340266597</v>
+        <v>0.1072030296148831</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03446628161708043</v>
+        <v>0.03881641561526665</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2363200672.240126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4184085969.042777</v>
+        <v>4536068374.314169</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1481744241040065</v>
+        <v>0.1391124699752535</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03220269586703927</v>
+        <v>0.02894466379255262</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>69</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2092043033.309916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4090521059.352059</v>
+        <v>3684675333.88358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1288670977557834</v>
+        <v>0.160603624908255</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02531925348079047</v>
+        <v>0.02669947392807051</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>80</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2045260542.827968</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3920757760.348047</v>
+        <v>4923746481.417961</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1134721349242659</v>
+        <v>0.1196312456556319</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04288179445461811</v>
+        <v>0.04153008325217623</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>65</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1960378849.493442</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2608228274.40593</v>
+        <v>3429042835.380249</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08050370486295182</v>
+        <v>0.08345766854144165</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03392639533489761</v>
+        <v>0.03329531695267656</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>72</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1304114188.654625</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4765161147.234575</v>
+        <v>6055599687.371435</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1020617115178818</v>
+        <v>0.1488054288393886</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0411904761653135</v>
+        <v>0.03698883905267047</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2382580615.764001</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2259932058.984424</v>
+        <v>1962661449.052999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1350339574076143</v>
+        <v>0.1715313132789755</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04676774314556165</v>
+        <v>0.05445794718039052</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1129966068.018279</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3198413069.089677</v>
+        <v>3190850756.683515</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09937362529422289</v>
+        <v>0.0944426921903558</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03745398572327219</v>
+        <v>0.03210683744728273</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1599206524.413489</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4792506723.782144</v>
+        <v>5182137401.871849</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1658635745208551</v>
+        <v>0.1740674657168285</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03051233158433149</v>
+        <v>0.02936633312675969</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>81</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2396253452.125436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1669312126.628858</v>
+        <v>1398471014.06447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1088140872553191</v>
+        <v>0.06681870178444435</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03570528526376802</v>
+        <v>0.03503399653099416</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>834656062.9913145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3251217698.32113</v>
+        <v>3123331192.551351</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07942238590326069</v>
+        <v>0.1116598785144602</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03932075423645891</v>
+        <v>0.03729440912351834</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>86</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1625608822.105673</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3100878477.252297</v>
+        <v>3550603416.334305</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1622131504732673</v>
+        <v>0.1297383138513952</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03221139245810399</v>
+        <v>0.03383001631687937</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>76</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1550439295.287251</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1609351920.257051</v>
+        <v>2169497862.51996</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1111630482006918</v>
+        <v>0.148129815753808</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03499595147519122</v>
+        <v>0.02331360486461125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>804675960.8730329</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4910178441.733199</v>
+        <v>3657185002.397928</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07678764318973498</v>
+        <v>0.087774727707504</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02697562661789268</v>
+        <v>0.02225638087367543</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2455089243.734104</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1503593609.965858</v>
+        <v>2070152508.701362</v>
       </c>
       <c r="F77" t="n">
-        <v>0.170597545437767</v>
+        <v>0.1424786184276073</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03156786025601713</v>
+        <v>0.02591333327757466</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>751796793.1498772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3587382131.415916</v>
+        <v>3228697097.899514</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09994554574556513</v>
+        <v>0.1370851797506041</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03563521276334276</v>
+        <v>0.03488471266340585</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>78</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1793691060.949481</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1586916710.030429</v>
+        <v>1404849274.802891</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1458476233610859</v>
+        <v>0.1117139276922342</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0331158662377817</v>
+        <v>0.02701440290483598</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>793458404.4300841</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3686530439.183597</v>
+        <v>4040038089.183743</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0832126938307325</v>
+        <v>0.0946966587907116</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03557840194245455</v>
+        <v>0.03101977912335444</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>47</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1843265203.45109</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3665268151.836599</v>
+        <v>3500662545.365145</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1065149774333579</v>
+        <v>0.1167064096914337</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02368922665231915</v>
+        <v>0.0245307173432576</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1832634026.695274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4012602721.14762</v>
+        <v>5238627927.691168</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1927076105824196</v>
+        <v>0.2143707999328545</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02272443837925437</v>
+        <v>0.02352608126088741</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>79</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2006301399.63166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2153541405.858422</v>
+        <v>1534456766.505678</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1505499332837208</v>
+        <v>0.1358944204987917</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03615614528121084</v>
+        <v>0.04196576151924315</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1076770707.338284</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1990765048.840379</v>
+        <v>1900281301.415095</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11107987887058</v>
+        <v>0.1058147944889137</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03994306410478166</v>
+        <v>0.04978588188241426</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>995382530.742856</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2615714466.162205</v>
+        <v>3555551763.211277</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1485211796342877</v>
+        <v>0.1726239641545718</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0447567936793886</v>
+        <v>0.04794740223460294</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>84</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1307857250.784705</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2553058925.437563</v>
+        <v>2198663264.123611</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1639615514054521</v>
+        <v>0.136894215240795</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01942641599115973</v>
+        <v>0.02468902120484267</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1276529567.23543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1433055382.721795</v>
+        <v>1434386735.626151</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1495684950231349</v>
+        <v>0.1321463954555213</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02915203997024005</v>
+        <v>0.02960587646442221</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>716527806.6665025</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3563767238.524485</v>
+        <v>2851975695.560763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1548255960448664</v>
+        <v>0.1481211212638486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02739725743585148</v>
+        <v>0.02548998468785716</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>88</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1781883705.407249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3282372841.446063</v>
+        <v>2576325343.118435</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1284060139737503</v>
+        <v>0.1027405490347559</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03531657136780967</v>
+        <v>0.03508572757917448</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1641186438.133805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1950968201.785231</v>
+        <v>1705965606.193314</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1201941053413875</v>
+        <v>0.1011255951059202</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04681189310717183</v>
+        <v>0.03447455186309007</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>975484162.1255388</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1648862131.084526</v>
+        <v>1580755700.286366</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1200871837034734</v>
+        <v>0.1933776600611746</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04621145378877746</v>
+        <v>0.06163468619964194</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>824431084.602631</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2973178976.499553</v>
+        <v>1853125891.752547</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1025763218880101</v>
+        <v>0.06731433468232662</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03689964110865008</v>
+        <v>0.02889700176486407</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>57</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1486589507.974114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3134730575.969147</v>
+        <v>3186234612.526815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1339744389446291</v>
+        <v>0.1159254783367305</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05087192065614634</v>
+        <v>0.04549561186756353</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1567365344.552038</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1846475747.777648</v>
+        <v>2149729977.088688</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1439547406617157</v>
+        <v>0.1318764264786171</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0318086641962518</v>
+        <v>0.04250571073360571</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>923237852.228937</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2733884618.372498</v>
+        <v>3037956355.254504</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09727263932995402</v>
+        <v>0.1053798710529496</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04435084200116898</v>
+        <v>0.05267708286327119</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1366942328.281406</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1614881213.426872</v>
+        <v>1676951344.257081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1158146457366526</v>
+        <v>0.09155266537611481</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04154449921662579</v>
+        <v>0.0308776855938428</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>807440634.797604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3806586727.384611</v>
+        <v>4019293261.147012</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1657816598466587</v>
+        <v>0.1751321011113196</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02102120868259593</v>
+        <v>0.01875445619830589</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1903293404.511722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3534591644.788033</v>
+        <v>3453272002.917444</v>
       </c>
       <c r="F98" t="n">
-        <v>0.102104505855317</v>
+        <v>0.1272208164422945</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02808253393807836</v>
+        <v>0.02282720303737778</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1767295843.335399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3143817216.931144</v>
+        <v>2379250797.138784</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1196502434158463</v>
+        <v>0.0898626709028179</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02887084304808255</v>
+        <v>0.03333402692228955</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>70</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1571908604.827037</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3759397283.888459</v>
+        <v>3479369738.487134</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1170543178293754</v>
+        <v>0.1765500161848191</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01893208139350423</v>
+        <v>0.02589902086929817</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1879698693.39615</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2599565923.159548</v>
+        <v>2204832828.315932</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1980717663517457</v>
+        <v>0.1877984434895996</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04740423712541832</v>
+        <v>0.05311594314987585</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>92</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1299782997.708144</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_224.xlsx
+++ b/output/fit_clients/fit_round_224.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1810808712.641034</v>
+        <v>1543879801.140271</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09300135458012446</v>
+        <v>0.07710624321639425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03993204305456982</v>
+        <v>0.02991524448962355</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2043052304.040621</v>
+        <v>2145522575.006979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1519556391138093</v>
+        <v>0.1458534081184329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04117123704939666</v>
+        <v>0.0325917356785685</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5224564400.975677</v>
+        <v>5029360951.869327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1349757623953494</v>
+        <v>0.1034566631161727</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02487987307088822</v>
+        <v>0.03738911918842561</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3922017987.990502</v>
+        <v>3459929057.439496</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07568318074386368</v>
+        <v>0.06916102936425671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04771234184005349</v>
+        <v>0.04557290537881546</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2064710421.248269</v>
+        <v>2216236267.101558</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1186580587662414</v>
+        <v>0.09740527227150299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0426150587292168</v>
+        <v>0.04918340939546113</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2720695288.084644</v>
+        <v>2608387580.124163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1004985525418332</v>
+        <v>0.07283583107122739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03417140774963161</v>
+        <v>0.04538043637907491</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3735946364.947399</v>
+        <v>3697953521.665557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2105750681639913</v>
+        <v>0.216831944465743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02597798844785803</v>
+        <v>0.02720595613019804</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1725780702.018059</v>
+        <v>2295083129.773716</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1915324018179353</v>
+        <v>0.1590946950537404</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03198661512804089</v>
+        <v>0.02377927853851777</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4943179639.427906</v>
+        <v>4266933249.343429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2075750498252811</v>
+        <v>0.1403966058013899</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0472283619337945</v>
+        <v>0.05352107992369652</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3935069049.329039</v>
+        <v>4103990204.853855</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1917209637970029</v>
+        <v>0.1268241897051776</v>
       </c>
       <c r="G11" t="n">
-        <v>0.039115382961105</v>
+        <v>0.03275151081938943</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3227212629.751275</v>
+        <v>2154298889.702228</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1576668426240353</v>
+        <v>0.1237744564625213</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04420059839624887</v>
+        <v>0.0538604711960725</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3612603251.809755</v>
+        <v>4843986372.135221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1010065784387408</v>
+        <v>0.07946181518579667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02267819379661179</v>
+        <v>0.02292227608143718</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3773393872.873492</v>
+        <v>2823793744.96205</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1645116556012294</v>
+        <v>0.1792756707606129</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04239751542824537</v>
+        <v>0.02679136982470492</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1153485387.2728</v>
+        <v>1125438925.451879</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07616822989991837</v>
+        <v>0.07325462628620558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03633526548719231</v>
+        <v>0.03264941238773974</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2400032599.392728</v>
+        <v>2823738804.017603</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1100114581498767</v>
+        <v>0.08792116264103141</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04467218735655198</v>
+        <v>0.04180905983838513</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5139241111.71688</v>
+        <v>3227182420.182517</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1132599085628569</v>
+        <v>0.1258389934013079</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0444210849471152</v>
+        <v>0.04849641276834606</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3102953442.646008</v>
+        <v>2483549432.16785</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1562092740510882</v>
+        <v>0.1547680702756003</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0281511583860963</v>
+        <v>0.0268804953502644</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>961145226.63571</v>
+        <v>1271513654.291308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.149130246064072</v>
+        <v>0.1829081023797553</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02218504469521155</v>
+        <v>0.02559785040380252</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2486626192.168425</v>
+        <v>2234905818.342315</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1479984282529492</v>
+        <v>0.1056990923737678</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03091713361540596</v>
+        <v>0.0209818300220097</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2366901307.177097</v>
+        <v>2171015162.982079</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07568861403211585</v>
+        <v>0.06466771497013954</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03181114587200329</v>
+        <v>0.03821850194794016</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3827920849.599609</v>
+        <v>4003668996.465466</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09566222733632233</v>
+        <v>0.09355011759366999</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04561167557765969</v>
+        <v>0.03584689387804625</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1066497976.244264</v>
+        <v>994997050.231756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.156200476603378</v>
+        <v>0.154404098811415</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03586866751282704</v>
+        <v>0.03649432655082011</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3277493824.051168</v>
+        <v>3126102213.82191</v>
       </c>
       <c r="F24" t="n">
-        <v>0.136358776147453</v>
+        <v>0.114631397988174</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03149553233825454</v>
+        <v>0.03070430698111437</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>963870276.9123194</v>
+        <v>1042789445.129257</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1219650441575201</v>
+        <v>0.1002271396269202</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02712903383890716</v>
+        <v>0.02790090156166829</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>931627691.073621</v>
+        <v>1050078698.073385</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1242883010816675</v>
+        <v>0.1083803831650719</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02586571939279832</v>
+        <v>0.03805334405413177</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4428214952.138599</v>
+        <v>3274046674.254255</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1041890743881865</v>
+        <v>0.1410314282520762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02175028439671205</v>
+        <v>0.0171890729079912</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2844513512.057168</v>
+        <v>3110057613.072757</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1175939196818627</v>
+        <v>0.1240160753048447</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03445608065129362</v>
+        <v>0.04865082225007936</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4179163860.06689</v>
+        <v>3888947590.909107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1156714835694536</v>
+        <v>0.1291969941006257</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02850724928082973</v>
+        <v>0.04105309609720388</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2151296425.05846</v>
+        <v>2342420685.655276</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1002010396277585</v>
+        <v>0.09842487461998925</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03446021406300257</v>
+        <v>0.02812127438098328</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1204436954.382365</v>
+        <v>1157046713.877068</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07012505984743334</v>
+        <v>0.08878532047981368</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04742345406504578</v>
+        <v>0.03685479943512388</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1574009260.39165</v>
+        <v>1353086581.885289</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1017557083089818</v>
+        <v>0.1125710969940836</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03669197620224405</v>
+        <v>0.03861236585363952</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2347400368.456572</v>
+        <v>2261270917.840722</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1390412369896795</v>
+        <v>0.1332862959203687</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04956296872080036</v>
+        <v>0.05084023800186295</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1507905178.282502</v>
+        <v>1310154102.801676</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1110272652588739</v>
+        <v>0.08232355937054163</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01855290516325718</v>
+        <v>0.02408630356342465</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1315615924.809841</v>
+        <v>1285305300.413822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09416789308065524</v>
+        <v>0.1152984974148036</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0327812951637675</v>
+        <v>0.03292668481701196</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2082483250.683735</v>
+        <v>1956665508.785151</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1343073949147971</v>
+        <v>0.1295926218529859</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02171296037571691</v>
+        <v>0.0249710369060342</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2327384144.999702</v>
+        <v>1988325936.682142</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0977844296043197</v>
+        <v>0.1056683695210349</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02875293802617573</v>
+        <v>0.03988132885018324</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1604224091.141022</v>
+        <v>1465529626.526254</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1075907035522243</v>
+        <v>0.1173225099213369</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03357318493950868</v>
+        <v>0.0393526880299306</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1430599032.975116</v>
+        <v>2004677303.996116</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1578867116549561</v>
+        <v>0.1312427605224643</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03014424445188799</v>
+        <v>0.0241930176078002</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1372005896.550876</v>
+        <v>1694884365.723372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1599543353814413</v>
+        <v>0.1216820989990736</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04261823195520482</v>
+        <v>0.04942541731201646</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2386855447.966597</v>
+        <v>2813341402.147869</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1383212535679685</v>
+        <v>0.1166319973799071</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03318877689697011</v>
+        <v>0.04201623830097634</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3317704140.652899</v>
+        <v>3413341641.128877</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08888444465729355</v>
+        <v>0.1121329359308467</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04639381333571296</v>
+        <v>0.03863571355786623</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2683431473.007822</v>
+        <v>1852034263.548801</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1901775604526859</v>
+        <v>0.1993241925994761</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01600826125733288</v>
+        <v>0.01579367229167538</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2160109038.04916</v>
+        <v>1873923196.307595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09422593275260821</v>
+        <v>0.06790980437765821</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02413635632754548</v>
+        <v>0.03336732172886494</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2209251382.671371</v>
+        <v>2535684984.950476</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1671427475176836</v>
+        <v>0.1791897918438532</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0483281878412636</v>
+        <v>0.04247282441923594</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3584408130.668897</v>
+        <v>3454308697.760577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1633597320489376</v>
+        <v>0.1786446114425657</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05653031799224044</v>
+        <v>0.04958489523206414</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4090353429.113384</v>
+        <v>4458945018.668274</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1895236101247364</v>
+        <v>0.1561081449020932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03847974815670121</v>
+        <v>0.03688332743142515</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3867955319.305043</v>
+        <v>4306288178.808561</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08838631205345111</v>
+        <v>0.09217792875394554</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03557972417200562</v>
+        <v>0.02372794423987286</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1740140525.377852</v>
+        <v>1486123563.185293</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1851478625358909</v>
+        <v>0.1304716610944678</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03349773262372752</v>
+        <v>0.03782275752175377</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2794486862.487623</v>
+        <v>4039944586.034055</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1240355241281233</v>
+        <v>0.1249940747666715</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03432082022362697</v>
+        <v>0.0426293089321558</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1462958840.845695</v>
+        <v>1185991713.457102</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1428614565368046</v>
+        <v>0.180791769871061</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04114191089405232</v>
+        <v>0.05433003863368416</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5286935602.136277</v>
+        <v>5245851554.884863</v>
       </c>
       <c r="F52" t="n">
-        <v>0.134654194698062</v>
+        <v>0.116836052630359</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05295836527385063</v>
+        <v>0.05617554512321377</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2548961296.929691</v>
+        <v>3395186792.427717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1498939763039024</v>
+        <v>0.1581052966517087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0327556187131311</v>
+        <v>0.03039797180727318</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3961971419.612827</v>
+        <v>4007843852.547331</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1641441649675012</v>
+        <v>0.1453773310331885</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03222920684075257</v>
+        <v>0.04474081641185729</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3138818162.392156</v>
+        <v>4764957219.369194</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2186044620446577</v>
+        <v>0.2197911467074773</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02283455019328562</v>
+        <v>0.02040582875770267</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1430128591.380995</v>
+        <v>1556480892.51444</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1492001287438521</v>
+        <v>0.1484019640804866</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05673395427217685</v>
+        <v>0.05437830216743166</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3804338718.440742</v>
+        <v>2825703054.130759</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1344006440332593</v>
+        <v>0.1761369093764011</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01852652867225357</v>
+        <v>0.01782793387438546</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1208381122.37599</v>
+        <v>1386943686.540386</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151653107617094</v>
+        <v>0.1340058748997248</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03502052974421733</v>
+        <v>0.03024856208271912</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3376474623.502941</v>
+        <v>3627283940.058444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1264560243611557</v>
+        <v>0.1216682897339183</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03674035191815321</v>
+        <v>0.04350334958952681</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2470690500.199122</v>
+        <v>3789949933.060857</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1835308677259657</v>
+        <v>0.1920274389535345</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03203584989135559</v>
+        <v>0.03141360552794171</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2288990434.78114</v>
+        <v>2534052384.08091</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1588078524285049</v>
+        <v>0.1281474698131561</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03261246503002729</v>
+        <v>0.02787161592026602</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1926011765.038069</v>
+        <v>1759001038.448265</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1839834210986576</v>
+        <v>0.1500826467919807</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03866859021458544</v>
+        <v>0.03147013420321772</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5517234195.354893</v>
+        <v>4524412783.844131</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1072030296148831</v>
+        <v>0.07984904591729117</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03881641561526665</v>
+        <v>0.04550614257522106</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4536068374.314169</v>
+        <v>3899051777.417911</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1391124699752535</v>
+        <v>0.12855995906246</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02894466379255262</v>
+        <v>0.03460843214128997</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3684675333.88358</v>
+        <v>4332443566.179262</v>
       </c>
       <c r="F65" t="n">
-        <v>0.160603624908255</v>
+        <v>0.1614917093156889</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02669947392807051</v>
+        <v>0.02491998037276476</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4923746481.417961</v>
+        <v>5206491361.213034</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1196312456556319</v>
+        <v>0.1072819320353113</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04153008325217623</v>
+        <v>0.05126313865186473</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3429042835.380249</v>
+        <v>2765172059.720039</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08345766854144165</v>
+        <v>0.07572775231600702</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03329531695267656</v>
+        <v>0.05114185877993224</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6055599687.371435</v>
+        <v>4409618517.742544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1488054288393886</v>
+        <v>0.09961562065888716</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03698883905267047</v>
+        <v>0.04336371943435696</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1962661449.052999</v>
+        <v>2315575869.585632</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1715313132789755</v>
+        <v>0.1724990254813308</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05445794718039052</v>
+        <v>0.04431887376422762</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3190850756.683515</v>
+        <v>2760230463.19668</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0944426921903558</v>
+        <v>0.08130688464851374</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03210683744728273</v>
+        <v>0.03211561949835223</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5182137401.871849</v>
+        <v>5509911062.719217</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1740674657168285</v>
+        <v>0.1398618617876757</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02936633312675969</v>
+        <v>0.0335669210383663</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1398471014.06447</v>
+        <v>1697801224.532039</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06681870178444435</v>
+        <v>0.07252899002130617</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03503399653099416</v>
+        <v>0.04476476532700675</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3123331192.551351</v>
+        <v>3066667770.984626</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1116598785144602</v>
+        <v>0.09413308246609313</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03729440912351834</v>
+        <v>0.04059741547221443</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3550603416.334305</v>
+        <v>3624562869.848841</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1297383138513952</v>
+        <v>0.1211912641148906</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03383001631687937</v>
+        <v>0.02974525824269896</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2169497862.51996</v>
+        <v>1688595653.081971</v>
       </c>
       <c r="F75" t="n">
-        <v>0.148129815753808</v>
+        <v>0.1640973326851575</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02331360486461125</v>
+        <v>0.02544872580714662</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3657185002.397928</v>
+        <v>3978372868.580289</v>
       </c>
       <c r="F76" t="n">
-        <v>0.087774727707504</v>
+        <v>0.08333806465454464</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02225638087367543</v>
+        <v>0.03249701393909617</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2070152508.701362</v>
+        <v>2134438313.766559</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1424786184276073</v>
+        <v>0.1290362978948632</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02591333327757466</v>
+        <v>0.02139377564253741</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3228697097.899514</v>
+        <v>3214190219.775107</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1370851797506041</v>
+        <v>0.1062876262463251</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03488471266340585</v>
+        <v>0.05152329189815989</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1404849274.802891</v>
+        <v>1822753315.475329</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117139276922342</v>
+        <v>0.157578941144016</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02701440290483598</v>
+        <v>0.03676209784522892</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4040038089.183743</v>
+        <v>4241885098.888394</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0946966587907116</v>
+        <v>0.08245234869913565</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03101977912335444</v>
+        <v>0.03101371581696604</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3500662545.365145</v>
+        <v>3586170294.663821</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1167064096914337</v>
+        <v>0.08832046541845473</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0245307173432576</v>
+        <v>0.02804153003540022</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5238627927.691168</v>
+        <v>5031943011.582195</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2143707999328545</v>
+        <v>0.1701767645478942</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02352608126088741</v>
+        <v>0.02811172489309993</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1534456766.505678</v>
+        <v>2230991206.396693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1358944204987917</v>
+        <v>0.1307318767654665</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04196576151924315</v>
+        <v>0.02973418440228499</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1900281301.415095</v>
+        <v>1637854073.863288</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1058147944889137</v>
+        <v>0.08929967081288456</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04978588188241426</v>
+        <v>0.04554908348820819</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3555551763.211277</v>
+        <v>2352650841.410478</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1726239641545718</v>
+        <v>0.1632085860451672</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04794740223460294</v>
+        <v>0.04413673951738041</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2198663264.123611</v>
+        <v>2657551438.387635</v>
       </c>
       <c r="F86" t="n">
-        <v>0.136894215240795</v>
+        <v>0.1263276901169052</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02468902120484267</v>
+        <v>0.02201126100371456</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1434386735.626151</v>
+        <v>1403910590.548172</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1321463954555213</v>
+        <v>0.17403274667279</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02960587646442221</v>
+        <v>0.03926872718487737</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2851975695.560763</v>
+        <v>2610622748.046857</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1481211212638486</v>
+        <v>0.1547354662501311</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02548998468785716</v>
+        <v>0.03835001492155195</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2576325343.118435</v>
+        <v>2289556591.644328</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1027405490347559</v>
+        <v>0.1555096050793167</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03508572757917448</v>
+        <v>0.0346965770426833</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1705965606.193314</v>
+        <v>1680703463.187498</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1011255951059202</v>
+        <v>0.1214479633905866</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03447455186309007</v>
+        <v>0.04866731747788226</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1580755700.286366</v>
+        <v>2018220778.602839</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1933776600611746</v>
+        <v>0.1218100600231086</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06163468619964194</v>
+        <v>0.05433513912570553</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1853125891.752547</v>
+        <v>2907724711.818253</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06731433468232662</v>
+        <v>0.07587874816345115</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02889700176486407</v>
+        <v>0.03209781337947248</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3186234612.526815</v>
+        <v>3778414216.874468</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1159254783367305</v>
+        <v>0.1014893047572486</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04549561186756353</v>
+        <v>0.03309586154349251</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2149729977.088688</v>
+        <v>1648554642.678878</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1318764264786171</v>
+        <v>0.1410310297650193</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04250571073360571</v>
+        <v>0.02729358098197006</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3037956355.254504</v>
+        <v>2161040980.341253</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1053798710529496</v>
+        <v>0.1217002670134639</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05267708286327119</v>
+        <v>0.04042467541908554</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1676951344.257081</v>
+        <v>2080994693.931009</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09155266537611481</v>
+        <v>0.135629457403806</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0308776855938428</v>
+        <v>0.02968215649935512</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4019293261.147012</v>
+        <v>3290379215.295727</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1751321011113196</v>
+        <v>0.1751545472996933</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01875445619830589</v>
+        <v>0.02414372446150146</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3453272002.917444</v>
+        <v>2949161612.428503</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1272208164422945</v>
+        <v>0.1167020203236094</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02282720303737778</v>
+        <v>0.02600447223052315</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2379250797.138784</v>
+        <v>3080570524.387828</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0898626709028179</v>
+        <v>0.1308728576598405</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03333402692228955</v>
+        <v>0.02677114179828277</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3479369738.487134</v>
+        <v>4521182213.709995</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1765500161848191</v>
+        <v>0.1268148812325357</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02589902086929817</v>
+        <v>0.02717116917375613</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2204832828.315932</v>
+        <v>2602761494.764373</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1877984434895996</v>
+        <v>0.2164441635410012</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05311594314987585</v>
+        <v>0.04453729580426378</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_224.xlsx
+++ b/output/fit_clients/fit_round_224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1543879801.140271</v>
+        <v>2053536308.701492</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07710624321639425</v>
+        <v>0.07086067907919813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02991524448962355</v>
+        <v>0.02892125952134674</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2145522575.006979</v>
+        <v>2314632525.54961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1458534081184329</v>
+        <v>0.1218623705833517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0325917356785685</v>
+        <v>0.03915904699407492</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5029360951.869327</v>
+        <v>3557889749.098188</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1034566631161727</v>
+        <v>0.1129342224210481</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03738911918842561</v>
+        <v>0.02656773811510632</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>122</v>
+      </c>
+      <c r="J4" t="n">
+        <v>224</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3459929057.439496</v>
+        <v>3434246761.562542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06916102936425671</v>
+        <v>0.08613640063752477</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04557290537881546</v>
+        <v>0.04938987282810226</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>93</v>
+      </c>
+      <c r="J5" t="n">
+        <v>223</v>
+      </c>
+      <c r="K5" t="n">
+        <v>92.96749672375032</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2216236267.101558</v>
+        <v>2215385496.45665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09740527227150299</v>
+        <v>0.1136482571171425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04918340939546113</v>
+        <v>0.05037069192556978</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2608387580.124163</v>
+        <v>2580233045.774717</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07283583107122739</v>
+        <v>0.068374842257676</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04538043637907491</v>
+        <v>0.03003761992557442</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3697953521.665557</v>
+        <v>3680368861.59085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.216831944465743</v>
+        <v>0.134513554816427</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02720595613019804</v>
+        <v>0.0301734817360263</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>62</v>
+      </c>
+      <c r="J8" t="n">
+        <v>224</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2295083129.773716</v>
+        <v>2272040121.456484</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1590946950537404</v>
+        <v>0.1979431751050365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02377927853851777</v>
+        <v>0.03275134476469493</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4266933249.343429</v>
+        <v>3831386997.022884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1403966058013899</v>
+        <v>0.130337575704616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05352107992369652</v>
+        <v>0.03727669848771314</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>204</v>
+      </c>
+      <c r="J10" t="n">
+        <v>223</v>
+      </c>
+      <c r="K10" t="n">
+        <v>109.1263047204055</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4103990204.853855</v>
+        <v>3479813092.602706</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1268241897051776</v>
+        <v>0.1500162223885591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03275151081938943</v>
+        <v>0.04426323840190501</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="n">
+        <v>90.81666064302038</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2154298889.702228</v>
+        <v>3233596569.140017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1237744564625213</v>
+        <v>0.1976081237261964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0538604711960725</v>
+        <v>0.03808914846982448</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4843986372.135221</v>
+        <v>4202859173.768209</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07946181518579667</v>
+        <v>0.06876088981315437</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02292227608143718</v>
+        <v>0.02017209594059191</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>113</v>
+      </c>
+      <c r="J13" t="n">
+        <v>224</v>
+      </c>
+      <c r="K13" t="n">
+        <v>112.596220795386</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2823793744.96205</v>
+        <v>3062337165.915274</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1792756707606129</v>
+        <v>0.1355310753730145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02679136982470492</v>
+        <v>0.03195487627304361</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>223</v>
+      </c>
+      <c r="K14" t="n">
+        <v>68.11190127829163</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1125438925.451879</v>
+        <v>1533846766.572303</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07325462628620558</v>
+        <v>0.08090602332228503</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03264941238773974</v>
+        <v>0.0376175618935106</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2823738804.017603</v>
+        <v>2856240727.555565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08792116264103141</v>
+        <v>0.108832208864317</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04180905983838513</v>
+        <v>0.04837428612076431</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3227182420.182517</v>
+        <v>5034693655.950452</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1258389934013079</v>
+        <v>0.1480579930999959</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04849641276834606</v>
+        <v>0.04996814495948285</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>108</v>
+      </c>
+      <c r="J17" t="n">
+        <v>223</v>
+      </c>
+      <c r="K17" t="n">
+        <v>103.3039491411228</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2483549432.16785</v>
+        <v>3413572578.332103</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1547680702756003</v>
+        <v>0.1539291674935558</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0268804953502644</v>
+        <v>0.02914246174448126</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1271513654.291308</v>
+        <v>960726536.235534</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1829081023797553</v>
+        <v>0.1258548960384812</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02559785040380252</v>
+        <v>0.02110746248810383</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2234905818.342315</v>
+        <v>2456105214.417799</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1056990923737678</v>
+        <v>0.1575553597967503</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0209818300220097</v>
+        <v>0.02677048331012075</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2171015162.982079</v>
+        <v>2139204795.41134</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06466771497013954</v>
+        <v>0.06844056172805982</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03821850194794016</v>
+        <v>0.03275380556260021</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4003668996.465466</v>
+        <v>2758343552.883867</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09355011759366999</v>
+        <v>0.08821161520208422</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03584689387804625</v>
+        <v>0.04311795640990073</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>994997050.231756</v>
+        <v>944442611.4761887</v>
       </c>
       <c r="F23" t="n">
-        <v>0.154404098811415</v>
+        <v>0.1303806727195845</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03649432655082011</v>
+        <v>0.04720748986215158</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3126102213.82191</v>
+        <v>2989451800.794055</v>
       </c>
       <c r="F24" t="n">
-        <v>0.114631397988174</v>
+        <v>0.1195321425025517</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03070430698111437</v>
+        <v>0.03663887453714618</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1042789445.129257</v>
+        <v>1182079040.090312</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1002271396269202</v>
+        <v>0.101353070671169</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02790090156166829</v>
+        <v>0.02302759392943669</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1050078698.073385</v>
+        <v>1236445786.731401</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1083803831650719</v>
+        <v>0.08114596885000172</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03805334405413177</v>
+        <v>0.02462516549816946</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3274046674.254255</v>
+        <v>4657409855.384871</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1410314282520762</v>
+        <v>0.1070595094319568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0171890729079912</v>
+        <v>0.01692212919355168</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>89</v>
+      </c>
+      <c r="J27" t="n">
+        <v>224</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3110057613.072757</v>
+        <v>3180341784.904532</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1240160753048447</v>
+        <v>0.1290678516642545</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04865082225007936</v>
+        <v>0.0449511421274095</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>222</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3888947590.909107</v>
+        <v>5439396988.489067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1291969941006257</v>
+        <v>0.1255212102586762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04105309609720388</v>
+        <v>0.04017893359593177</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>213</v>
+      </c>
+      <c r="J29" t="n">
+        <v>224</v>
+      </c>
+      <c r="K29" t="n">
+        <v>124.6179754675032</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2342420685.655276</v>
+        <v>1637171902.010241</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09842487461998925</v>
+        <v>0.08762432396746511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02812127438098328</v>
+        <v>0.03316790108181949</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1157046713.877068</v>
+        <v>1220293864.69727</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08878532047981368</v>
+        <v>0.08589577090809057</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03685479943512388</v>
+        <v>0.05234131848986714</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1353086581.885289</v>
+        <v>1795861209.594722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1125710969940836</v>
+        <v>0.08609448698305533</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03861236585363952</v>
+        <v>0.03392778137571229</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2261270917.840722</v>
+        <v>2441534606.039302</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1332862959203687</v>
+        <v>0.2043667848284934</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05084023800186295</v>
+        <v>0.05039557414083842</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1310154102.801676</v>
+        <v>1192662535.613066</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08232355937054163</v>
+        <v>0.1114120918026438</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02408630356342465</v>
+        <v>0.02121738306292892</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1285305300.413822</v>
+        <v>1309904770.791924</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1152984974148036</v>
+        <v>0.09314969949713969</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03292668481701196</v>
+        <v>0.03459673510351575</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1956665508.785151</v>
+        <v>2268786649.929497</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1295926218529859</v>
+        <v>0.1746592552211749</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0249710369060342</v>
+        <v>0.01904789190280808</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1988325936.682142</v>
+        <v>1801592885.175891</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056683695210349</v>
+        <v>0.0885065484365934</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03988132885018324</v>
+        <v>0.04078801639457814</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1465529626.526254</v>
+        <v>1425204074.266701</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1173225099213369</v>
+        <v>0.0873280692189891</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0393526880299306</v>
+        <v>0.03215909695189641</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2004677303.996116</v>
+        <v>2032107418.212748</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1312427605224643</v>
+        <v>0.1772789956760033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0241930176078002</v>
+        <v>0.02130495098525404</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1694884365.723372</v>
+        <v>1202892497.715755</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1216820989990736</v>
+        <v>0.1251400262881721</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04942541731201646</v>
+        <v>0.04595448522612736</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2813341402.147869</v>
+        <v>2290333517.999077</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1166319973799071</v>
+        <v>0.1511210455862708</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04201623830097634</v>
+        <v>0.03025461239413622</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3413341641.128877</v>
+        <v>4181208086.985493</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1121329359308467</v>
+        <v>0.08759016764240252</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03863571355786623</v>
+        <v>0.0403523227140655</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>89</v>
+      </c>
+      <c r="J42" t="n">
+        <v>224</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1852034263.548801</v>
+        <v>2001315719.470501</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1993241925994761</v>
+        <v>0.1381463495284485</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01579367229167538</v>
+        <v>0.02315134836157366</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1873923196.307595</v>
+        <v>1814319292.750061</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06790980437765821</v>
+        <v>0.09689922849205118</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03336732172886494</v>
+        <v>0.03505911407107404</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2535684984.950476</v>
+        <v>2049867866.406522</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1791897918438532</v>
+        <v>0.1630457067911623</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04247282441923594</v>
+        <v>0.03515188725745824</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3454308697.760577</v>
+        <v>5226977231.959775</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1786446114425657</v>
+        <v>0.1351471082518442</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04958489523206414</v>
+        <v>0.05122316624407731</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>129</v>
+      </c>
+      <c r="J46" t="n">
+        <v>223</v>
+      </c>
+      <c r="K46" t="n">
+        <v>112.5291853319793</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4458945018.668274</v>
+        <v>4014233099.494984</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1561081449020932</v>
+        <v>0.1252085151304409</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03688332743142515</v>
+        <v>0.05670923554873326</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>101</v>
+      </c>
+      <c r="J47" t="n">
+        <v>223</v>
+      </c>
+      <c r="K47" t="n">
+        <v>90.66843510159578</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4306288178.808561</v>
+        <v>3579991403.03915</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09217792875394554</v>
+        <v>0.09009062566409752</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02372794423987286</v>
+        <v>0.02611526542668308</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>109</v>
+      </c>
+      <c r="J48" t="n">
+        <v>224</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1486123563.185293</v>
+        <v>1336711968.85871</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1304716610944678</v>
+        <v>0.1590108122734534</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03782275752175377</v>
+        <v>0.03378673649098977</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4039944586.034055</v>
+        <v>2612521630.580364</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249940747666715</v>
+        <v>0.122315401536463</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0426293089321558</v>
+        <v>0.04580948442886711</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>73</v>
+      </c>
+      <c r="J50" t="n">
+        <v>223</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.14940343873153</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1185991713.457102</v>
+        <v>1521001018.898276</v>
       </c>
       <c r="F51" t="n">
-        <v>0.180791769871061</v>
+        <v>0.1444302594252239</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05433003863368416</v>
+        <v>0.03524277560366584</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5245851554.884863</v>
+        <v>3192451031.156671</v>
       </c>
       <c r="F52" t="n">
-        <v>0.116836052630359</v>
+        <v>0.09712607182656902</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05617554512321377</v>
+        <v>0.05137058904156703</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>149</v>
+      </c>
+      <c r="J52" t="n">
+        <v>222</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3395186792.427717</v>
+        <v>2436701135.377489</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1581052966517087</v>
+        <v>0.1731915914652613</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03039797180727318</v>
+        <v>0.03373593919868039</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4007843852.547331</v>
+        <v>3848393781.686758</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1453773310331885</v>
+        <v>0.1485666441040978</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04474081641185729</v>
+        <v>0.03326253208689684</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>119</v>
+      </c>
+      <c r="J54" t="n">
+        <v>224</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4764957219.369194</v>
+        <v>4687378700.858941</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2197911467074773</v>
+        <v>0.1625147586433396</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02040582875770267</v>
+        <v>0.03027926267439401</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>101</v>
+      </c>
+      <c r="J55" t="n">
+        <v>223</v>
+      </c>
+      <c r="K55" t="n">
+        <v>108.1189627863627</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1556480892.51444</v>
+        <v>1485756823.544737</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1484019640804866</v>
+        <v>0.1503770907337758</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05437830216743166</v>
+        <v>0.05144832131485946</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2825703054.130759</v>
+        <v>3551114084.694344</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1761369093764011</v>
+        <v>0.1212660580325976</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01782793387438546</v>
+        <v>0.02549506811255565</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>87</v>
+      </c>
+      <c r="J57" t="n">
+        <v>224</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1386943686.540386</v>
+        <v>1222652915.585188</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1340058748997248</v>
+        <v>0.1784376428384277</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03024856208271912</v>
+        <v>0.03031280822746689</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3627283940.058444</v>
+        <v>3731041756.88154</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1216682897339183</v>
+        <v>0.08977958512053572</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04350334958952681</v>
+        <v>0.04347826573235675</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>108</v>
+      </c>
+      <c r="J59" t="n">
+        <v>224</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3789949933.060857</v>
+        <v>3336977795.730784</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1920274389535345</v>
+        <v>0.1571183799584423</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03141360552794171</v>
+        <v>0.03262392579979485</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2534052384.08091</v>
+        <v>2055847930.596058</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1281474698131561</v>
+        <v>0.1283507470920705</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02787161592026602</v>
+        <v>0.02013429364056308</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1759001038.448265</v>
+        <v>1719497084.18868</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1500826467919807</v>
+        <v>0.1460571575284625</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03147013420321772</v>
+        <v>0.04758721468765612</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4524412783.844131</v>
+        <v>3446566811.489105</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07984904591729117</v>
+        <v>0.1054713380056833</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04550614257522106</v>
+        <v>0.032217911384956</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>109</v>
+      </c>
+      <c r="J63" t="n">
+        <v>223</v>
+      </c>
+      <c r="K63" t="n">
+        <v>77.36426833163948</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3899051777.417911</v>
+        <v>4198227820.726985</v>
       </c>
       <c r="F64" t="n">
-        <v>0.12855995906246</v>
+        <v>0.1841075914688524</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03460843214128997</v>
+        <v>0.03152087234189506</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>110</v>
+      </c>
+      <c r="J64" t="n">
+        <v>224</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4332443566.179262</v>
+        <v>5731032884.208123</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1614917093156889</v>
+        <v>0.1432679421957014</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02491998037276476</v>
+        <v>0.02214209765943808</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>177</v>
+      </c>
+      <c r="J65" t="n">
+        <v>224</v>
+      </c>
+      <c r="K65" t="n">
+        <v>114.7289148043923</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5206491361.213034</v>
+        <v>4097762259.484664</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072819320353113</v>
+        <v>0.1472271872072494</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05126313865186473</v>
+        <v>0.03352580545742206</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>110</v>
+      </c>
+      <c r="J66" t="n">
+        <v>224</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2765172059.720039</v>
+        <v>2632575255.779757</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07572775231600702</v>
+        <v>0.08773707703377633</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05114185877993224</v>
+        <v>0.04699762499775162</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4409618517.742544</v>
+        <v>3845583814.518892</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09961562065888716</v>
+        <v>0.1153442413532046</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04336371943435696</v>
+        <v>0.04286748549369415</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>113</v>
+      </c>
+      <c r="J68" t="n">
+        <v>223</v>
+      </c>
+      <c r="K68" t="n">
+        <v>100.3293792541702</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2315575869.585632</v>
+        <v>1851277782.035687</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1724990254813308</v>
+        <v>0.1344816533497241</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04431887376422762</v>
+        <v>0.04865713707392883</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2760230463.19668</v>
+        <v>2789146617.692269</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08130688464851374</v>
+        <v>0.09060629177579911</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03211561949835223</v>
+        <v>0.03815288522766154</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33</v>
+      </c>
+      <c r="J70" t="n">
+        <v>223</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.98224560192856</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5509911062.719217</v>
+        <v>5647201107.449941</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1398618617876757</v>
+        <v>0.1491051147408637</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0335669210383663</v>
+        <v>0.02581286153224456</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>171</v>
+      </c>
+      <c r="J71" t="n">
+        <v>224</v>
+      </c>
+      <c r="K71" t="n">
+        <v>113.9928784705353</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1697801224.532039</v>
+        <v>1904558317.234085</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07252899002130617</v>
+        <v>0.1025740110036426</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04476476532700675</v>
+        <v>0.03272941508755039</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3066667770.984626</v>
+        <v>3343352256.278682</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09413308246609313</v>
+        <v>0.0730607087294208</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04059741547221443</v>
+        <v>0.03619388897009742</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3624562869.848841</v>
+        <v>2668779989.879984</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1211912641148906</v>
+        <v>0.1606309953394716</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02974525824269896</v>
+        <v>0.02907818918462496</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1688595653.081971</v>
+        <v>1512402764.172497</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1640973326851575</v>
+        <v>0.11270959387445</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02544872580714662</v>
+        <v>0.02510370455204596</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3978372868.580289</v>
+        <v>3835887976.268466</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08333806465454464</v>
+        <v>0.1238196689532289</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03249701393909617</v>
+        <v>0.03346129690031751</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>103</v>
+      </c>
+      <c r="J76" t="n">
+        <v>224</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2134438313.766559</v>
+        <v>1612075883.330331</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1290362978948632</v>
+        <v>0.1557393159063969</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02139377564253741</v>
+        <v>0.02115402140452507</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3214190219.775107</v>
+        <v>4521754988.353916</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1062876262463251</v>
+        <v>0.1081633925878383</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05152329189815989</v>
+        <v>0.04587775710949409</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>112</v>
+      </c>
+      <c r="J78" t="n">
+        <v>224</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1822753315.475329</v>
+        <v>1239327884.403537</v>
       </c>
       <c r="F79" t="n">
-        <v>0.157578941144016</v>
+        <v>0.1563056657001592</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03676209784522892</v>
+        <v>0.03552854080763928</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4241885098.888394</v>
+        <v>4279301754.760376</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08245234869913565</v>
+        <v>0.071866823791204</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03101371581696604</v>
+        <v>0.02583272280971331</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>109</v>
+      </c>
+      <c r="J80" t="n">
+        <v>223</v>
+      </c>
+      <c r="K80" t="n">
+        <v>83.42607079982407</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3586170294.663821</v>
+        <v>4360853953.250629</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08832046541845473</v>
+        <v>0.1159111871716184</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02804153003540022</v>
+        <v>0.0312186957178189</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>103</v>
+      </c>
+      <c r="J81" t="n">
+        <v>223</v>
+      </c>
+      <c r="K81" t="n">
+        <v>96.82793050950663</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5031943011.582195</v>
+        <v>4833785280.478971</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1701767645478942</v>
+        <v>0.1616573296783416</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02811172489309993</v>
+        <v>0.0181638473405526</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>167</v>
+      </c>
+      <c r="J82" t="n">
+        <v>224</v>
+      </c>
+      <c r="K82" t="n">
+        <v>116.0277060644065</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2230991206.396693</v>
+        <v>2476796725.231315</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1307318767654665</v>
+        <v>0.1475667605412112</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02973418440228499</v>
+        <v>0.03715508342951675</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1637854073.863288</v>
+        <v>2574548599.757552</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08929967081288456</v>
+        <v>0.1028835356844288</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04554908348820819</v>
+        <v>0.05122665962245104</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2352650841.410478</v>
+        <v>3349413282.210574</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1632085860451672</v>
+        <v>0.131815072318836</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04413673951738041</v>
+        <v>0.03414624831206984</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2657551438.387635</v>
+        <v>2301295760.934323</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1263276901169052</v>
+        <v>0.1110712025576681</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02201126100371456</v>
+        <v>0.01787095590831715</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1403910590.548172</v>
+        <v>1479104425.623878</v>
       </c>
       <c r="F87" t="n">
-        <v>0.17403274667279</v>
+        <v>0.1824557844195626</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03926872718487737</v>
+        <v>0.0289391417246629</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2610622748.046857</v>
+        <v>2525501504.329762</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1547354662501311</v>
+        <v>0.1721517191428661</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03835001492155195</v>
+        <v>0.02773116320100723</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2289556591.644328</v>
+        <v>3242991163.54526</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1555096050793167</v>
+        <v>0.1434432711066857</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0346965770426833</v>
+        <v>0.04153264406798336</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>220</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1680703463.187498</v>
+        <v>1904943022.076892</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1214479633905866</v>
+        <v>0.09147931474650425</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04866731747788226</v>
+        <v>0.04139741375174575</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2018220778.602839</v>
+        <v>1521032068.272459</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1218100600231086</v>
+        <v>0.1814930647749337</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05433513912570553</v>
+        <v>0.04491207940826684</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2907724711.818253</v>
+        <v>1967315554.944966</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07587874816345115</v>
+        <v>0.07532863453253168</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03209781337947248</v>
+        <v>0.0308313516643504</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3778414216.874468</v>
+        <v>3441581009.857816</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1014893047572486</v>
+        <v>0.1278244568114763</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03309586154349251</v>
+        <v>0.05119770290284579</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" t="n">
+        <v>224</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1648554642.678878</v>
+        <v>1776500962.806812</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1410310297650193</v>
+        <v>0.115411064290875</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02729358098197006</v>
+        <v>0.04282773126182774</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2161040980.341253</v>
+        <v>3118671570.072929</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1217002670134639</v>
+        <v>0.08323511214623383</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04042467541908554</v>
+        <v>0.04387217294734008</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2080994693.931009</v>
+        <v>1702719134.103106</v>
       </c>
       <c r="F96" t="n">
-        <v>0.135629457403806</v>
+        <v>0.1228762215766954</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02968215649935512</v>
+        <v>0.03873891672504107</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3290379215.295727</v>
+        <v>3646028053.262474</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1751545472996933</v>
+        <v>0.1311188580101167</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02414372446150146</v>
+        <v>0.01794737099746993</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>108</v>
+      </c>
+      <c r="J97" t="n">
+        <v>224</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2949161612.428503</v>
+        <v>3733572680.963672</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1167020203236094</v>
+        <v>0.110190821031514</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02600447223052315</v>
+        <v>0.0221586576074959</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>224</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3080570524.387828</v>
+        <v>2455023097.126121</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1308728576598405</v>
+        <v>0.1333902785949492</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02677114179828277</v>
+        <v>0.03311574140522053</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4521182213.709995</v>
+        <v>3959876750.684377</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1268148812325357</v>
+        <v>0.1664930653609646</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02717116917375613</v>
+        <v>0.026910035178674</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>94</v>
+      </c>
+      <c r="J100" t="n">
+        <v>223</v>
+      </c>
+      <c r="K100" t="n">
+        <v>104.9255249482767</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2602761494.764373</v>
+        <v>2512163307.602969</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2164441635410012</v>
+        <v>0.1998106433084993</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04453729580426378</v>
+        <v>0.03861096690550432</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
